--- a/BOL (ahmed.xlsx
+++ b/BOL (ahmed.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="776">
   <si>
     <t>الرقم</t>
   </si>
@@ -2342,6 +2342,12 @@
   </si>
   <si>
     <t>15+33+2</t>
+  </si>
+  <si>
+    <t>25+15</t>
+  </si>
+  <si>
+    <t>15+15</t>
   </si>
 </sst>
 </file>
@@ -3255,10 +3261,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W104"/>
+  <dimension ref="A1:W103"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -3602,28 +3608,28 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="23" t="s">
         <v>754</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="23">
         <v>40</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="38">
         <v>43302</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="38">
         <v>43337</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="23" t="s">
         <v>756</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="23" t="s">
         <v>757</v>
       </c>
-      <c r="I6" s="83">
+      <c r="I6" s="39">
         <v>43311</v>
       </c>
       <c r="J6" s="25" t="s">
@@ -3631,23 +3637,27 @@
       </c>
       <c r="K6" s="28"/>
       <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17" t="s">
+      <c r="M6" s="23"/>
+      <c r="N6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="17">
+      <c r="O6" s="23">
         <v>21600</v>
       </c>
-      <c r="P6" s="17">
+      <c r="P6" s="23">
         <v>35</v>
       </c>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="21">
+      <c r="Q6" s="23"/>
+      <c r="R6" s="38">
         <v>43342</v>
       </c>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23">
+        <v>10</v>
+      </c>
+      <c r="U6" s="23" t="s">
+        <v>775</v>
+      </c>
       <c r="V6" s="17" t="s">
         <v>247</v>
       </c>
@@ -3657,68 +3667,34 @@
     </row>
     <row r="7" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>755</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="23">
-        <v>40</v>
-      </c>
-      <c r="E7" s="38">
-        <v>43302</v>
-      </c>
-      <c r="F7" s="38">
-        <v>43337</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>758</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>759</v>
-      </c>
-      <c r="I7" s="39">
-        <v>43311</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>139</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="19"/>
       <c r="K7" s="28"/>
       <c r="L7" s="17"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="O7" s="23">
-        <v>21600</v>
-      </c>
-      <c r="P7" s="23">
-        <v>35</v>
-      </c>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="38">
-        <v>43342</v>
-      </c>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23">
-        <v>15</v>
-      </c>
-      <c r="U7" s="23">
-        <v>25</v>
-      </c>
-      <c r="V7" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="W7" s="17" t="s">
-        <v>248</v>
-      </c>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
     </row>
     <row r="8" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -3745,7 +3721,7 @@
     </row>
     <row r="9" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -3772,7 +3748,7 @@
     </row>
     <row r="10" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -3799,7 +3775,7 @@
     </row>
     <row r="11" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -3826,7 +3802,7 @@
     </row>
     <row r="12" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -3853,7 +3829,7 @@
     </row>
     <row r="13" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -3880,7 +3856,7 @@
     </row>
     <row r="14" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -3907,7 +3883,7 @@
     </row>
     <row r="15" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -3934,7 +3910,7 @@
     </row>
     <row r="16" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -3961,7 +3937,7 @@
     </row>
     <row r="17" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -3988,7 +3964,7 @@
     </row>
     <row r="18" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -4015,7 +3991,7 @@
     </row>
     <row r="19" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -4042,7 +4018,7 @@
     </row>
     <row r="20" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -4069,7 +4045,7 @@
     </row>
     <row r="21" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -4096,7 +4072,7 @@
     </row>
     <row r="22" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -4123,7 +4099,7 @@
     </row>
     <row r="23" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -4150,7 +4126,7 @@
     </row>
     <row r="24" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -4177,7 +4153,7 @@
     </row>
     <row r="25" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -4204,7 +4180,7 @@
     </row>
     <row r="26" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -4231,7 +4207,7 @@
     </row>
     <row r="27" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -4258,7 +4234,7 @@
     </row>
     <row r="28" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -4285,7 +4261,7 @@
     </row>
     <row r="29" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -4312,7 +4288,7 @@
     </row>
     <row r="30" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -4339,7 +4315,7 @@
     </row>
     <row r="31" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -4366,7 +4342,7 @@
     </row>
     <row r="32" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -4393,7 +4369,7 @@
     </row>
     <row r="33" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -4420,7 +4396,7 @@
     </row>
     <row r="34" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -4447,7 +4423,7 @@
     </row>
     <row r="35" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -4474,7 +4450,7 @@
     </row>
     <row r="36" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -4501,7 +4477,7 @@
     </row>
     <row r="37" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -4528,7 +4504,7 @@
     </row>
     <row r="38" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -4555,7 +4531,7 @@
     </row>
     <row r="39" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -4582,7 +4558,7 @@
     </row>
     <row r="40" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -4609,7 +4585,7 @@
     </row>
     <row r="41" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -4636,7 +4612,7 @@
     </row>
     <row r="42" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -4663,7 +4639,7 @@
     </row>
     <row r="43" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -4690,7 +4666,7 @@
     </row>
     <row r="44" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -4717,7 +4693,7 @@
     </row>
     <row r="45" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -4744,7 +4720,7 @@
     </row>
     <row r="46" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -4771,7 +4747,7 @@
     </row>
     <row r="47" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -4798,7 +4774,7 @@
     </row>
     <row r="48" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -4825,7 +4801,7 @@
     </row>
     <row r="49" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
@@ -4852,7 +4828,7 @@
     </row>
     <row r="50" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
@@ -4879,7 +4855,7 @@
     </row>
     <row r="51" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
@@ -4906,7 +4882,7 @@
     </row>
     <row r="52" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
@@ -4933,7 +4909,7 @@
     </row>
     <row r="53" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
@@ -4960,7 +4936,7 @@
     </row>
     <row r="54" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
@@ -4987,7 +4963,7 @@
     </row>
     <row r="55" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
@@ -5014,7 +4990,7 @@
     </row>
     <row r="56" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
@@ -5041,7 +5017,7 @@
     </row>
     <row r="57" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
@@ -5068,7 +5044,7 @@
     </row>
     <row r="58" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
@@ -5095,7 +5071,7 @@
     </row>
     <row r="59" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
@@ -5122,7 +5098,7 @@
     </row>
     <row r="60" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
@@ -5149,7 +5125,7 @@
     </row>
     <row r="61" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
@@ -5176,7 +5152,7 @@
     </row>
     <row r="62" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
@@ -5203,7 +5179,7 @@
     </row>
     <row r="63" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
@@ -5230,7 +5206,7 @@
     </row>
     <row r="64" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
@@ -5257,7 +5233,7 @@
     </row>
     <row r="65" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
@@ -5284,7 +5260,7 @@
     </row>
     <row r="66" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
@@ -5311,7 +5287,7 @@
     </row>
     <row r="67" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
@@ -5338,7 +5314,7 @@
     </row>
     <row r="68" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
@@ -5365,7 +5341,7 @@
     </row>
     <row r="69" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
@@ -5392,7 +5368,7 @@
     </row>
     <row r="70" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
@@ -5419,7 +5395,7 @@
     </row>
     <row r="71" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
@@ -5446,7 +5422,7 @@
     </row>
     <row r="72" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
@@ -5473,7 +5449,7 @@
     </row>
     <row r="73" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
@@ -5500,7 +5476,7 @@
     </row>
     <row r="74" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
@@ -5527,7 +5503,7 @@
     </row>
     <row r="75" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
@@ -5554,7 +5530,7 @@
     </row>
     <row r="76" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
@@ -5581,7 +5557,7 @@
     </row>
     <row r="77" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A77" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
@@ -5608,7 +5584,7 @@
     </row>
     <row r="78" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A78" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
@@ -5635,7 +5611,7 @@
     </row>
     <row r="79" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A79" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
@@ -5662,7 +5638,7 @@
     </row>
     <row r="80" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A80" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
@@ -5689,7 +5665,7 @@
     </row>
     <row r="81" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A81" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
@@ -5715,8 +5691,8 @@
       <c r="W81" s="17"/>
     </row>
     <row r="82" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A82" s="2">
-        <v>82</v>
+      <c r="A82" s="41">
+        <v>83</v>
       </c>
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
@@ -5742,8 +5718,8 @@
       <c r="W82" s="17"/>
     </row>
     <row r="83" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A83" s="41">
-        <v>83</v>
+      <c r="A83" s="42">
+        <v>64</v>
       </c>
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
@@ -5770,7 +5746,7 @@
     </row>
     <row r="84" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A84" s="42">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
@@ -5797,7 +5773,7 @@
     </row>
     <row r="85" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A85" s="42">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
@@ -5824,7 +5800,7 @@
     </row>
     <row r="86" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A86" s="42">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
@@ -5851,7 +5827,7 @@
     </row>
     <row r="87" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A87" s="42">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
@@ -5878,7 +5854,7 @@
     </row>
     <row r="88" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A88" s="42">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
@@ -5905,7 +5881,7 @@
     </row>
     <row r="89" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A89" s="42">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
@@ -5932,7 +5908,7 @@
     </row>
     <row r="90" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A90" s="42">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
@@ -5959,7 +5935,7 @@
     </row>
     <row r="91" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A91" s="42">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B91" s="17"/>
       <c r="C91" s="17"/>
@@ -5986,7 +5962,7 @@
     </row>
     <row r="92" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A92" s="42">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
@@ -6013,7 +5989,7 @@
     </row>
     <row r="93" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A93" s="42">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
@@ -6040,7 +6016,7 @@
     </row>
     <row r="94" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A94" s="42">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
@@ -6067,7 +6043,7 @@
     </row>
     <row r="95" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A95" s="42">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
@@ -6094,7 +6070,7 @@
     </row>
     <row r="96" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A96" s="42">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
@@ -6121,17 +6097,8 @@
     </row>
     <row r="97" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A97" s="42">
-        <v>97</v>
-      </c>
-      <c r="B97" s="17"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="17"/>
-      <c r="G97" s="17"/>
-      <c r="H97" s="17"/>
-      <c r="I97" s="17"/>
-      <c r="J97" s="19"/>
+        <v>98</v>
+      </c>
       <c r="K97" s="28"/>
       <c r="L97" s="17"/>
       <c r="M97" s="17"/>
@@ -6148,7 +6115,7 @@
     </row>
     <row r="98" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A98" s="42">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K98" s="28"/>
       <c r="L98" s="17"/>
@@ -6166,7 +6133,7 @@
     </row>
     <row r="99" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A99" s="42">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K99" s="28"/>
       <c r="L99" s="17"/>
@@ -6183,9 +6150,7 @@
       <c r="W99" s="17"/>
     </row>
     <row r="100" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A100" s="42">
-        <v>100</v>
-      </c>
+      <c r="A100" s="42"/>
       <c r="K100" s="28"/>
       <c r="L100" s="17"/>
       <c r="M100" s="17"/>
@@ -6234,22 +6199,6 @@
     </row>
     <row r="103" spans="1:23" ht="20.100000000000001" customHeight="1">
       <c r="A103" s="42"/>
-      <c r="K103" s="28"/>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
-      <c r="R103" s="17"/>
-      <c r="S103" s="17"/>
-      <c r="T103" s="17"/>
-      <c r="U103" s="17"/>
-      <c r="V103" s="17"/>
-      <c r="W103" s="17"/>
-    </row>
-    <row r="104" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A104" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6262,7 +6211,7 @@
   <dimension ref="A1:S248"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="J182" sqref="J182"/>
+      <selection activeCell="J182" sqref="J182:R182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -16208,23 +16157,55 @@
       <c r="A182" s="13">
         <v>171</v>
       </c>
-      <c r="B182" s="17"/>
-      <c r="C182" s="17"/>
-      <c r="D182" s="17"/>
-      <c r="E182" s="17"/>
-      <c r="F182" s="17"/>
-      <c r="G182" s="17"/>
-      <c r="H182" s="17"/>
-      <c r="I182" s="17"/>
-      <c r="J182" s="19"/>
-      <c r="K182" s="28"/>
-      <c r="L182" s="19"/>
-      <c r="M182" s="19"/>
-      <c r="N182" s="19"/>
-      <c r="O182" s="30"/>
-      <c r="P182" s="30"/>
-      <c r="Q182" s="19"/>
-      <c r="R182" s="19"/>
+      <c r="B182" s="26" t="s">
+        <v>755</v>
+      </c>
+      <c r="C182" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D182" s="26">
+        <v>40</v>
+      </c>
+      <c r="E182" s="29">
+        <v>43302</v>
+      </c>
+      <c r="F182" s="29">
+        <v>43337</v>
+      </c>
+      <c r="G182" s="26" t="s">
+        <v>758</v>
+      </c>
+      <c r="H182" s="26" t="s">
+        <v>759</v>
+      </c>
+      <c r="I182" s="33">
+        <v>43311</v>
+      </c>
+      <c r="J182" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K182" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L182" s="26">
+        <v>21600</v>
+      </c>
+      <c r="M182" s="26">
+        <v>35</v>
+      </c>
+      <c r="N182" s="26"/>
+      <c r="O182" s="29">
+        <v>43342</v>
+      </c>
+      <c r="P182" s="29">
+        <v>43382</v>
+      </c>
+      <c r="Q182" s="26" t="s">
+        <v>762</v>
+      </c>
+      <c r="R182" s="26" t="s">
+        <v>774</v>
+      </c>
     </row>
     <row r="183" spans="1:18">
       <c r="A183" s="13">

--- a/BOL (ahmed.xlsx
+++ b/BOL (ahmed.xlsx
@@ -3263,7 +3263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W103"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>

--- a/BOL (ahmed.xlsx
+++ b/BOL (ahmed.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SENT" sheetId="4" r:id="rId1"/>
@@ -13,14 +13,14 @@
     <sheet name="Sheet2" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">SENT!$A$1:$Z$84</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">SENT!$A$1:$Y$76</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="798">
   <si>
     <t>الرقم</t>
   </si>
@@ -1933,9 +1933,6 @@
     <t>MUN800051700</t>
   </si>
   <si>
-    <t>لارين</t>
-  </si>
-  <si>
     <t>21+5</t>
   </si>
   <si>
@@ -2347,7 +2344,76 @@
     <t>25+15</t>
   </si>
   <si>
-    <t>15+15</t>
+    <t>10349*05/09</t>
+  </si>
+  <si>
+    <t>10349*05/10</t>
+  </si>
+  <si>
+    <t>10349*05/11</t>
+  </si>
+  <si>
+    <t>10349*05/12</t>
+  </si>
+  <si>
+    <t>10349*05/13</t>
+  </si>
+  <si>
+    <t>10349*05/14</t>
+  </si>
+  <si>
+    <t>10349*05/15</t>
+  </si>
+  <si>
+    <t>10349*05/16</t>
+  </si>
+  <si>
+    <t>6983*29/09</t>
+  </si>
+  <si>
+    <t>6983*29/10</t>
+  </si>
+  <si>
+    <t>6983*29/11</t>
+  </si>
+  <si>
+    <t>6983*29/12</t>
+  </si>
+  <si>
+    <t>6983*29/13</t>
+  </si>
+  <si>
+    <t>6983*29/14</t>
+  </si>
+  <si>
+    <t>6983*29/15</t>
+  </si>
+  <si>
+    <t>6983*29/16</t>
+  </si>
+  <si>
+    <t>15+15+10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nil </t>
+  </si>
+  <si>
+    <t>8+1</t>
+  </si>
+  <si>
+    <t>8+13+19+13+1</t>
+  </si>
+  <si>
+    <t>16+5+4</t>
+  </si>
+  <si>
+    <t>10+15</t>
+  </si>
+  <si>
+    <t>1+1+3</t>
+  </si>
+  <si>
+    <t>26+17+18</t>
   </si>
 </sst>
 </file>
@@ -3261,39 +3327,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W103"/>
+  <dimension ref="A1:V95"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView rightToLeft="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="6" customWidth="1"/>
     <col min="2" max="2" width="25" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="18" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" style="6" customWidth="1"/>
     <col min="6" max="6" width="14" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" style="6" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="6" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="6"/>
-    <col min="13" max="13" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="6"/>
-    <col min="16" max="16" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="6"/>
-    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" style="16" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="16" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="6"/>
+    <col min="11" max="11" width="9.140625" style="6"/>
+    <col min="12" max="12" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="6"/>
+    <col min="15" max="15" width="14" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" style="6" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="6"/>
+    <col min="20" max="20" width="20.140625" style="6" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="16" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="16" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="17" t="s">
         <v>1</v>
@@ -3325,42 +3391,41 @@
       <c r="K1" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="L1" s="2"/>
+      <c r="L1" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="M1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U1" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="U1" s="13" t="s">
+        <v>244</v>
+      </c>
       <c r="V1" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="W1" s="13" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3392,282 +3457,255 @@
         <v>139</v>
       </c>
       <c r="K2" s="28"/>
-      <c r="L2" s="17"/>
+      <c r="L2" s="23" t="s">
+        <v>24</v>
+      </c>
       <c r="M2" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="23" t="s">
-        <v>13</v>
+        <v>13</v>
+      </c>
+      <c r="N2" s="23">
+        <v>19200</v>
       </c>
       <c r="O2" s="23">
-        <v>19200</v>
-      </c>
-      <c r="P2" s="23">
         <v>21</v>
       </c>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="38">
+      <c r="P2" s="23"/>
+      <c r="Q2" s="38">
         <v>43143</v>
       </c>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23">
+      <c r="R2" s="23"/>
+      <c r="S2" s="23">
         <v>1</v>
       </c>
-      <c r="U2" s="23" t="s">
-        <v>689</v>
+      <c r="T2" s="23" t="s">
+        <v>688</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>246</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="W2" s="17" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>636</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="19">
-        <v>54</v>
-      </c>
-      <c r="E3" s="30">
-        <v>43177</v>
-      </c>
-      <c r="F3" s="30">
-        <v>43212</v>
-      </c>
-      <c r="G3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>666</v>
       </c>
-      <c r="H3" s="19" t="s">
-        <v>672</v>
-      </c>
-      <c r="I3" s="83">
-        <v>43191</v>
+      <c r="C3" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="23">
+        <v>37</v>
+      </c>
+      <c r="E3" s="38">
+        <v>43158</v>
+      </c>
+      <c r="F3" s="38">
+        <v>43179</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>667</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>676</v>
+      </c>
+      <c r="I3" s="39">
+        <v>43144</v>
       </c>
       <c r="J3" s="25" t="s">
         <v>139</v>
       </c>
       <c r="K3" s="28"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17" t="s">
+      <c r="L3" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="23">
+        <v>19240</v>
+      </c>
+      <c r="O3" s="23">
+        <v>21</v>
+      </c>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="38">
+        <v>43207</v>
+      </c>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23">
+        <v>1</v>
+      </c>
+      <c r="T3" s="23" t="s">
+        <v>689</v>
+      </c>
+      <c r="U3" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="V3" s="17" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="2">
         <v>12</v>
       </c>
-      <c r="N3" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="17">
-        <v>29160</v>
-      </c>
-      <c r="P3" s="17">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="21">
-        <v>43188</v>
-      </c>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="W3" s="17" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>648</v>
+      <c r="B4" s="17">
+        <v>9746</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="19">
-        <v>9</v>
-      </c>
-      <c r="E4" s="30">
-        <v>43134</v>
-      </c>
-      <c r="F4" s="30">
-        <v>43169</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="D4" s="17">
+        <v>25</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="19" t="s">
-        <v>649</v>
+        <v>779</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>663</v>
+        <v>787</v>
       </c>
       <c r="I4" s="83">
-        <v>43144</v>
+        <v>43317</v>
       </c>
       <c r="J4" s="25" t="s">
         <v>139</v>
       </c>
       <c r="K4" s="28"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17" t="s">
+      <c r="L4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="17" t="s">
-        <v>13</v>
+      <c r="M4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="17">
+        <v>13500</v>
       </c>
       <c r="O4" s="17">
-        <v>5400</v>
-      </c>
-      <c r="P4" s="17">
-        <v>35</v>
-      </c>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="21">
-        <v>43200</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="21">
+        <v>43378</v>
+      </c>
+      <c r="R4" s="17"/>
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
       <c r="U4" s="17"/>
-      <c r="V4" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="W4" s="17" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="20.100000000000001" customHeight="1">
+      <c r="V4" s="17"/>
+    </row>
+    <row r="5" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>667</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="23">
-        <v>37</v>
-      </c>
-      <c r="E5" s="38">
-        <v>43158</v>
-      </c>
-      <c r="F5" s="38">
-        <v>43179</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>668</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>677</v>
-      </c>
-      <c r="I5" s="39">
-        <v>43144</v>
+        <v>13</v>
+      </c>
+      <c r="B5" s="17">
+        <v>9768</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="17">
+        <v>50</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="19" t="s">
+        <v>780</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>788</v>
+      </c>
+      <c r="I5" s="83">
+        <v>43318</v>
       </c>
       <c r="J5" s="25" t="s">
         <v>139</v>
       </c>
       <c r="K5" s="28"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5" s="23">
-        <v>19240</v>
-      </c>
-      <c r="P5" s="23">
+      <c r="L5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="17">
+        <v>27000</v>
+      </c>
+      <c r="O5" s="17">
         <v>21</v>
       </c>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="38">
-        <v>43207</v>
-      </c>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23">
-        <v>1</v>
-      </c>
-      <c r="U5" s="23" t="s">
-        <v>690</v>
-      </c>
-      <c r="V5" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="W5" s="17" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="20.100000000000001" customHeight="1">
+      <c r="P5" s="17"/>
+      <c r="Q5" s="21">
+        <v>43379</v>
+      </c>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+    </row>
+    <row r="6" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>754</v>
+        <v>14</v>
+      </c>
+      <c r="B6" s="23">
+        <v>25471</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>20</v>
+        <v>237</v>
       </c>
       <c r="D6" s="23">
-        <v>40</v>
-      </c>
-      <c r="E6" s="38">
-        <v>43302</v>
-      </c>
-      <c r="F6" s="38">
-        <v>43337</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
       <c r="G6" s="23" t="s">
-        <v>756</v>
+        <v>781</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>757</v>
+        <v>789</v>
       </c>
       <c r="I6" s="39">
-        <v>43311</v>
+        <v>43319</v>
       </c>
       <c r="J6" s="25" t="s">
         <v>139</v>
       </c>
       <c r="K6" s="28"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23" t="s">
-        <v>13</v>
+      <c r="L6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="23">
+        <v>52000</v>
       </c>
       <c r="O6" s="23">
-        <v>21600</v>
-      </c>
-      <c r="P6" s="23">
-        <v>35</v>
-      </c>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="38">
-        <v>43342</v>
-      </c>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23">
-        <v>10</v>
-      </c>
-      <c r="U6" s="23" t="s">
-        <v>775</v>
-      </c>
-      <c r="V6" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="W6" s="17" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="20.100000000000001" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="38">
+        <v>43383</v>
+      </c>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23">
+        <v>39</v>
+      </c>
+      <c r="T6" s="23" t="s">
+        <v>797</v>
+      </c>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+    </row>
+    <row r="7" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -3680,7 +3718,7 @@
       <c r="J7" s="19"/>
       <c r="K7" s="28"/>
       <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
+      <c r="M7" s="19"/>
       <c r="N7" s="17"/>
       <c r="O7" s="17"/>
       <c r="P7" s="17"/>
@@ -3690,11 +3728,10 @@
       <c r="T7" s="17"/>
       <c r="U7" s="17"/>
       <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-    </row>
-    <row r="8" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="8" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -3717,11 +3754,10 @@
       <c r="T8" s="17"/>
       <c r="U8" s="17"/>
       <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-    </row>
-    <row r="9" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="9" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="2">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -3744,11 +3780,10 @@
       <c r="T9" s="17"/>
       <c r="U9" s="17"/>
       <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-    </row>
-    <row r="10" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="10" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="2">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -3771,11 +3806,10 @@
       <c r="T10" s="17"/>
       <c r="U10" s="17"/>
       <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-    </row>
-    <row r="11" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="11" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="2">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -3798,11 +3832,10 @@
       <c r="T11" s="17"/>
       <c r="U11" s="17"/>
       <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-    </row>
-    <row r="12" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="12" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -3825,11 +3858,10 @@
       <c r="T12" s="17"/>
       <c r="U12" s="17"/>
       <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-    </row>
-    <row r="13" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="13" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="2">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -3852,11 +3884,10 @@
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
       <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-    </row>
-    <row r="14" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="14" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="2">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -3879,11 +3910,10 @@
       <c r="T14" s="17"/>
       <c r="U14" s="17"/>
       <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-    </row>
-    <row r="15" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="15" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="2">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -3906,11 +3936,10 @@
       <c r="T15" s="17"/>
       <c r="U15" s="17"/>
       <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-    </row>
-    <row r="16" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="16" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="2">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -3933,11 +3962,10 @@
       <c r="T16" s="17"/>
       <c r="U16" s="17"/>
       <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-    </row>
-    <row r="17" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="17" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="2">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -3960,11 +3988,10 @@
       <c r="T17" s="17"/>
       <c r="U17" s="17"/>
       <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-    </row>
-    <row r="18" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="18" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="2">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -3987,11 +4014,10 @@
       <c r="T18" s="17"/>
       <c r="U18" s="17"/>
       <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-    </row>
-    <row r="19" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="19" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="2">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -4014,11 +4040,10 @@
       <c r="T19" s="17"/>
       <c r="U19" s="17"/>
       <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-    </row>
-    <row r="20" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="20" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="2">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -4041,11 +4066,10 @@
       <c r="T20" s="17"/>
       <c r="U20" s="17"/>
       <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-    </row>
-    <row r="21" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="21" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="2">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -4068,11 +4092,10 @@
       <c r="T21" s="17"/>
       <c r="U21" s="17"/>
       <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-    </row>
-    <row r="22" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="22" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="2">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -4095,11 +4118,10 @@
       <c r="T22" s="17"/>
       <c r="U22" s="17"/>
       <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-    </row>
-    <row r="23" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="23" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="2">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -4122,11 +4144,10 @@
       <c r="T23" s="17"/>
       <c r="U23" s="17"/>
       <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-    </row>
-    <row r="24" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="24" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="2">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -4149,11 +4170,10 @@
       <c r="T24" s="17"/>
       <c r="U24" s="17"/>
       <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-    </row>
-    <row r="25" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="25" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="2">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -4176,11 +4196,10 @@
       <c r="T25" s="17"/>
       <c r="U25" s="17"/>
       <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-    </row>
-    <row r="26" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="26" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="2">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -4203,11 +4222,10 @@
       <c r="T26" s="17"/>
       <c r="U26" s="17"/>
       <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-    </row>
-    <row r="27" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="27" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="2">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -4230,11 +4248,10 @@
       <c r="T27" s="17"/>
       <c r="U27" s="17"/>
       <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
-    </row>
-    <row r="28" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="28" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="2">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -4257,11 +4274,10 @@
       <c r="T28" s="17"/>
       <c r="U28" s="17"/>
       <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-    </row>
-    <row r="29" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="29" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="2">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -4284,11 +4300,10 @@
       <c r="T29" s="17"/>
       <c r="U29" s="17"/>
       <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
-    </row>
-    <row r="30" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="30" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="2">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -4311,11 +4326,10 @@
       <c r="T30" s="17"/>
       <c r="U30" s="17"/>
       <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
-    </row>
-    <row r="31" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="31" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="2">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -4338,11 +4352,10 @@
       <c r="T31" s="17"/>
       <c r="U31" s="17"/>
       <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
-    </row>
-    <row r="32" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="32" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="2">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -4365,11 +4378,10 @@
       <c r="T32" s="17"/>
       <c r="U32" s="17"/>
       <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
-    </row>
-    <row r="33" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="33" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="2">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -4392,11 +4404,10 @@
       <c r="T33" s="17"/>
       <c r="U33" s="17"/>
       <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-    </row>
-    <row r="34" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="34" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="2">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -4419,11 +4430,10 @@
       <c r="T34" s="17"/>
       <c r="U34" s="17"/>
       <c r="V34" s="17"/>
-      <c r="W34" s="17"/>
-    </row>
-    <row r="35" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="35" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -4446,11 +4456,10 @@
       <c r="T35" s="17"/>
       <c r="U35" s="17"/>
       <c r="V35" s="17"/>
-      <c r="W35" s="17"/>
-    </row>
-    <row r="36" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="36" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -4473,11 +4482,10 @@
       <c r="T36" s="17"/>
       <c r="U36" s="17"/>
       <c r="V36" s="17"/>
-      <c r="W36" s="17"/>
-    </row>
-    <row r="37" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="37" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -4500,11 +4508,10 @@
       <c r="T37" s="17"/>
       <c r="U37" s="17"/>
       <c r="V37" s="17"/>
-      <c r="W37" s="17"/>
-    </row>
-    <row r="38" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="38" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -4527,11 +4534,10 @@
       <c r="T38" s="17"/>
       <c r="U38" s="17"/>
       <c r="V38" s="17"/>
-      <c r="W38" s="17"/>
-    </row>
-    <row r="39" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="39" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -4554,11 +4560,10 @@
       <c r="T39" s="17"/>
       <c r="U39" s="17"/>
       <c r="V39" s="17"/>
-      <c r="W39" s="17"/>
-    </row>
-    <row r="40" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="40" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -4581,11 +4586,10 @@
       <c r="T40" s="17"/>
       <c r="U40" s="17"/>
       <c r="V40" s="17"/>
-      <c r="W40" s="17"/>
-    </row>
-    <row r="41" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="41" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -4608,11 +4612,10 @@
       <c r="T41" s="17"/>
       <c r="U41" s="17"/>
       <c r="V41" s="17"/>
-      <c r="W41" s="17"/>
-    </row>
-    <row r="42" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="42" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -4635,11 +4638,10 @@
       <c r="T42" s="17"/>
       <c r="U42" s="17"/>
       <c r="V42" s="17"/>
-      <c r="W42" s="17"/>
-    </row>
-    <row r="43" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="43" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -4662,11 +4664,10 @@
       <c r="T43" s="17"/>
       <c r="U43" s="17"/>
       <c r="V43" s="17"/>
-      <c r="W43" s="17"/>
-    </row>
-    <row r="44" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="44" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -4689,11 +4690,10 @@
       <c r="T44" s="17"/>
       <c r="U44" s="17"/>
       <c r="V44" s="17"/>
-      <c r="W44" s="17"/>
-    </row>
-    <row r="45" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="45" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="2">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -4716,11 +4716,10 @@
       <c r="T45" s="17"/>
       <c r="U45" s="17"/>
       <c r="V45" s="17"/>
-      <c r="W45" s="17"/>
-    </row>
-    <row r="46" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="46" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="2">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -4743,11 +4742,10 @@
       <c r="T46" s="17"/>
       <c r="U46" s="17"/>
       <c r="V46" s="17"/>
-      <c r="W46" s="17"/>
-    </row>
-    <row r="47" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="47" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="2">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -4770,11 +4768,10 @@
       <c r="T47" s="17"/>
       <c r="U47" s="17"/>
       <c r="V47" s="17"/>
-      <c r="W47" s="17"/>
-    </row>
-    <row r="48" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="48" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="2">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -4797,11 +4794,10 @@
       <c r="T48" s="17"/>
       <c r="U48" s="17"/>
       <c r="V48" s="17"/>
-      <c r="W48" s="17"/>
-    </row>
-    <row r="49" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="49" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="2">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
@@ -4824,11 +4820,10 @@
       <c r="T49" s="17"/>
       <c r="U49" s="17"/>
       <c r="V49" s="17"/>
-      <c r="W49" s="17"/>
-    </row>
-    <row r="50" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="50" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="2">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
@@ -4851,11 +4846,10 @@
       <c r="T50" s="17"/>
       <c r="U50" s="17"/>
       <c r="V50" s="17"/>
-      <c r="W50" s="17"/>
-    </row>
-    <row r="51" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="51" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="2">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
@@ -4878,11 +4872,10 @@
       <c r="T51" s="17"/>
       <c r="U51" s="17"/>
       <c r="V51" s="17"/>
-      <c r="W51" s="17"/>
-    </row>
-    <row r="52" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="52" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="2">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
@@ -4905,11 +4898,10 @@
       <c r="T52" s="17"/>
       <c r="U52" s="17"/>
       <c r="V52" s="17"/>
-      <c r="W52" s="17"/>
-    </row>
-    <row r="53" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="53" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="2">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
@@ -4932,11 +4924,10 @@
       <c r="T53" s="17"/>
       <c r="U53" s="17"/>
       <c r="V53" s="17"/>
-      <c r="W53" s="17"/>
-    </row>
-    <row r="54" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="54" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="2">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
@@ -4959,11 +4950,10 @@
       <c r="T54" s="17"/>
       <c r="U54" s="17"/>
       <c r="V54" s="17"/>
-      <c r="W54" s="17"/>
-    </row>
-    <row r="55" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="55" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="2">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
@@ -4986,11 +4976,10 @@
       <c r="T55" s="17"/>
       <c r="U55" s="17"/>
       <c r="V55" s="17"/>
-      <c r="W55" s="17"/>
-    </row>
-    <row r="56" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="56" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="2">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
@@ -5013,11 +5002,10 @@
       <c r="T56" s="17"/>
       <c r="U56" s="17"/>
       <c r="V56" s="17"/>
-      <c r="W56" s="17"/>
-    </row>
-    <row r="57" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="57" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="2">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
@@ -5040,11 +5028,10 @@
       <c r="T57" s="17"/>
       <c r="U57" s="17"/>
       <c r="V57" s="17"/>
-      <c r="W57" s="17"/>
-    </row>
-    <row r="58" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="58" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="2">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
@@ -5067,11 +5054,10 @@
       <c r="T58" s="17"/>
       <c r="U58" s="17"/>
       <c r="V58" s="17"/>
-      <c r="W58" s="17"/>
-    </row>
-    <row r="59" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="59" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="2">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
@@ -5094,11 +5080,10 @@
       <c r="T59" s="17"/>
       <c r="U59" s="17"/>
       <c r="V59" s="17"/>
-      <c r="W59" s="17"/>
-    </row>
-    <row r="60" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="60" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="2">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
@@ -5121,11 +5106,10 @@
       <c r="T60" s="17"/>
       <c r="U60" s="17"/>
       <c r="V60" s="17"/>
-      <c r="W60" s="17"/>
-    </row>
-    <row r="61" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="61" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="2">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
@@ -5148,11 +5132,10 @@
       <c r="T61" s="17"/>
       <c r="U61" s="17"/>
       <c r="V61" s="17"/>
-      <c r="W61" s="17"/>
-    </row>
-    <row r="62" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="62" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="2">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
@@ -5175,11 +5158,10 @@
       <c r="T62" s="17"/>
       <c r="U62" s="17"/>
       <c r="V62" s="17"/>
-      <c r="W62" s="17"/>
-    </row>
-    <row r="63" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="63" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="2">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
@@ -5202,11 +5184,10 @@
       <c r="T63" s="17"/>
       <c r="U63" s="17"/>
       <c r="V63" s="17"/>
-      <c r="W63" s="17"/>
-    </row>
-    <row r="64" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="64" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="2">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
@@ -5229,11 +5210,10 @@
       <c r="T64" s="17"/>
       <c r="U64" s="17"/>
       <c r="V64" s="17"/>
-      <c r="W64" s="17"/>
-    </row>
-    <row r="65" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="65" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="2">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
@@ -5256,11 +5236,10 @@
       <c r="T65" s="17"/>
       <c r="U65" s="17"/>
       <c r="V65" s="17"/>
-      <c r="W65" s="17"/>
-    </row>
-    <row r="66" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="66" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="2">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
@@ -5283,11 +5262,10 @@
       <c r="T66" s="17"/>
       <c r="U66" s="17"/>
       <c r="V66" s="17"/>
-      <c r="W66" s="17"/>
-    </row>
-    <row r="67" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="67" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="2">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
@@ -5310,11 +5288,10 @@
       <c r="T67" s="17"/>
       <c r="U67" s="17"/>
       <c r="V67" s="17"/>
-      <c r="W67" s="17"/>
-    </row>
-    <row r="68" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="68" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="2">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
@@ -5337,11 +5314,10 @@
       <c r="T68" s="17"/>
       <c r="U68" s="17"/>
       <c r="V68" s="17"/>
-      <c r="W68" s="17"/>
-    </row>
-    <row r="69" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="69" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
@@ -5364,11 +5340,10 @@
       <c r="T69" s="17"/>
       <c r="U69" s="17"/>
       <c r="V69" s="17"/>
-      <c r="W69" s="17"/>
-    </row>
-    <row r="70" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="70" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
@@ -5391,11 +5366,10 @@
       <c r="T70" s="17"/>
       <c r="U70" s="17"/>
       <c r="V70" s="17"/>
-      <c r="W70" s="17"/>
-    </row>
-    <row r="71" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="71" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
@@ -5418,11 +5392,10 @@
       <c r="T71" s="17"/>
       <c r="U71" s="17"/>
       <c r="V71" s="17"/>
-      <c r="W71" s="17"/>
-    </row>
-    <row r="72" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="72" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
@@ -5445,11 +5418,10 @@
       <c r="T72" s="17"/>
       <c r="U72" s="17"/>
       <c r="V72" s="17"/>
-      <c r="W72" s="17"/>
-    </row>
-    <row r="73" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="73" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
@@ -5472,11 +5444,10 @@
       <c r="T73" s="17"/>
       <c r="U73" s="17"/>
       <c r="V73" s="17"/>
-      <c r="W73" s="17"/>
-    </row>
-    <row r="74" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A74" s="2">
-        <v>75</v>
+    </row>
+    <row r="74" spans="1:22" ht="20.100000000000001" customHeight="1">
+      <c r="A74" s="41">
+        <v>83</v>
       </c>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
@@ -5499,11 +5470,10 @@
       <c r="T74" s="17"/>
       <c r="U74" s="17"/>
       <c r="V74" s="17"/>
-      <c r="W74" s="17"/>
-    </row>
-    <row r="75" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A75" s="2">
-        <v>76</v>
+    </row>
+    <row r="75" spans="1:22" ht="20.100000000000001" customHeight="1">
+      <c r="A75" s="42">
+        <v>64</v>
       </c>
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
@@ -5526,11 +5496,10 @@
       <c r="T75" s="17"/>
       <c r="U75" s="17"/>
       <c r="V75" s="17"/>
-      <c r="W75" s="17"/>
-    </row>
-    <row r="76" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A76" s="2">
-        <v>77</v>
+    </row>
+    <row r="76" spans="1:22" ht="20.100000000000001" customHeight="1">
+      <c r="A76" s="42">
+        <v>85</v>
       </c>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
@@ -5553,11 +5522,10 @@
       <c r="T76" s="17"/>
       <c r="U76" s="17"/>
       <c r="V76" s="17"/>
-      <c r="W76" s="17"/>
-    </row>
-    <row r="77" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A77" s="2">
-        <v>78</v>
+    </row>
+    <row r="77" spans="1:22" ht="20.100000000000001" customHeight="1">
+      <c r="A77" s="42">
+        <v>86</v>
       </c>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
@@ -5580,11 +5548,10 @@
       <c r="T77" s="17"/>
       <c r="U77" s="17"/>
       <c r="V77" s="17"/>
-      <c r="W77" s="17"/>
-    </row>
-    <row r="78" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A78" s="2">
-        <v>79</v>
+    </row>
+    <row r="78" spans="1:22" ht="20.100000000000001" customHeight="1">
+      <c r="A78" s="42">
+        <v>87</v>
       </c>
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
@@ -5607,11 +5574,10 @@
       <c r="T78" s="17"/>
       <c r="U78" s="17"/>
       <c r="V78" s="17"/>
-      <c r="W78" s="17"/>
-    </row>
-    <row r="79" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A79" s="2">
-        <v>80</v>
+    </row>
+    <row r="79" spans="1:22" ht="20.100000000000001" customHeight="1">
+      <c r="A79" s="42">
+        <v>88</v>
       </c>
       <c r="B79" s="17"/>
       <c r="C79" s="17"/>
@@ -5634,11 +5600,10 @@
       <c r="T79" s="17"/>
       <c r="U79" s="17"/>
       <c r="V79" s="17"/>
-      <c r="W79" s="17"/>
-    </row>
-    <row r="80" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A80" s="2">
-        <v>81</v>
+    </row>
+    <row r="80" spans="1:22" ht="20.100000000000001" customHeight="1">
+      <c r="A80" s="42">
+        <v>89</v>
       </c>
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
@@ -5661,11 +5626,10 @@
       <c r="T80" s="17"/>
       <c r="U80" s="17"/>
       <c r="V80" s="17"/>
-      <c r="W80" s="17"/>
-    </row>
-    <row r="81" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A81" s="2">
-        <v>82</v>
+    </row>
+    <row r="81" spans="1:22" ht="20.100000000000001" customHeight="1">
+      <c r="A81" s="42">
+        <v>90</v>
       </c>
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
@@ -5688,11 +5652,10 @@
       <c r="T81" s="17"/>
       <c r="U81" s="17"/>
       <c r="V81" s="17"/>
-      <c r="W81" s="17"/>
-    </row>
-    <row r="82" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A82" s="41">
-        <v>83</v>
+    </row>
+    <row r="82" spans="1:22" ht="20.100000000000001" customHeight="1">
+      <c r="A82" s="42">
+        <v>91</v>
       </c>
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
@@ -5715,11 +5678,10 @@
       <c r="T82" s="17"/>
       <c r="U82" s="17"/>
       <c r="V82" s="17"/>
-      <c r="W82" s="17"/>
-    </row>
-    <row r="83" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="83" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A83" s="42">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
@@ -5742,11 +5704,10 @@
       <c r="T83" s="17"/>
       <c r="U83" s="17"/>
       <c r="V83" s="17"/>
-      <c r="W83" s="17"/>
-    </row>
-    <row r="84" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="84" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A84" s="42">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
@@ -5769,11 +5730,10 @@
       <c r="T84" s="17"/>
       <c r="U84" s="17"/>
       <c r="V84" s="17"/>
-      <c r="W84" s="17"/>
-    </row>
-    <row r="85" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="85" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A85" s="42">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B85" s="17"/>
       <c r="C85" s="17"/>
@@ -5796,11 +5756,10 @@
       <c r="T85" s="17"/>
       <c r="U85" s="17"/>
       <c r="V85" s="17"/>
-      <c r="W85" s="17"/>
-    </row>
-    <row r="86" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="86" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A86" s="42">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
@@ -5823,11 +5782,10 @@
       <c r="T86" s="17"/>
       <c r="U86" s="17"/>
       <c r="V86" s="17"/>
-      <c r="W86" s="17"/>
-    </row>
-    <row r="87" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="87" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A87" s="42">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
@@ -5850,11 +5808,10 @@
       <c r="T87" s="17"/>
       <c r="U87" s="17"/>
       <c r="V87" s="17"/>
-      <c r="W87" s="17"/>
-    </row>
-    <row r="88" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="88" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A88" s="42">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
@@ -5877,21 +5834,11 @@
       <c r="T88" s="17"/>
       <c r="U88" s="17"/>
       <c r="V88" s="17"/>
-      <c r="W88" s="17"/>
-    </row>
-    <row r="89" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="89" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A89" s="42">
-        <v>90</v>
-      </c>
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="19"/>
+        <v>98</v>
+      </c>
       <c r="K89" s="28"/>
       <c r="L89" s="17"/>
       <c r="M89" s="17"/>
@@ -5904,21 +5851,11 @@
       <c r="T89" s="17"/>
       <c r="U89" s="17"/>
       <c r="V89" s="17"/>
-      <c r="W89" s="17"/>
-    </row>
-    <row r="90" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="90" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A90" s="42">
-        <v>91</v>
-      </c>
-      <c r="B90" s="17"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="17"/>
-      <c r="J90" s="19"/>
+        <v>99</v>
+      </c>
       <c r="K90" s="28"/>
       <c r="L90" s="17"/>
       <c r="M90" s="17"/>
@@ -5931,21 +5868,11 @@
       <c r="T90" s="17"/>
       <c r="U90" s="17"/>
       <c r="V90" s="17"/>
-      <c r="W90" s="17"/>
-    </row>
-    <row r="91" spans="1:23" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="91" spans="1:22" ht="20.100000000000001" customHeight="1">
       <c r="A91" s="42">
-        <v>92</v>
-      </c>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="17"/>
-      <c r="J91" s="19"/>
+        <v>100</v>
+      </c>
       <c r="K91" s="28"/>
       <c r="L91" s="17"/>
       <c r="M91" s="17"/>
@@ -5958,21 +5885,9 @@
       <c r="T91" s="17"/>
       <c r="U91" s="17"/>
       <c r="V91" s="17"/>
-      <c r="W91" s="17"/>
-    </row>
-    <row r="92" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A92" s="42">
-        <v>93</v>
-      </c>
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="17"/>
-      <c r="J92" s="19"/>
+    </row>
+    <row r="92" spans="1:22" ht="20.100000000000001" customHeight="1">
+      <c r="A92" s="42"/>
       <c r="K92" s="28"/>
       <c r="L92" s="17"/>
       <c r="M92" s="17"/>
@@ -5985,21 +5900,9 @@
       <c r="T92" s="17"/>
       <c r="U92" s="17"/>
       <c r="V92" s="17"/>
-      <c r="W92" s="17"/>
-    </row>
-    <row r="93" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A93" s="42">
-        <v>94</v>
-      </c>
-      <c r="B93" s="17"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="19"/>
+    </row>
+    <row r="93" spans="1:22" ht="20.100000000000001" customHeight="1">
+      <c r="A93" s="42"/>
       <c r="K93" s="28"/>
       <c r="L93" s="17"/>
       <c r="M93" s="17"/>
@@ -6012,21 +5915,9 @@
       <c r="T93" s="17"/>
       <c r="U93" s="17"/>
       <c r="V93" s="17"/>
-      <c r="W93" s="17"/>
-    </row>
-    <row r="94" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A94" s="42">
-        <v>95</v>
-      </c>
-      <c r="B94" s="17"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="17"/>
-      <c r="J94" s="19"/>
+    </row>
+    <row r="94" spans="1:22" ht="20.100000000000001" customHeight="1">
+      <c r="A94" s="42"/>
       <c r="K94" s="28"/>
       <c r="L94" s="17"/>
       <c r="M94" s="17"/>
@@ -6039,166 +5930,9 @@
       <c r="T94" s="17"/>
       <c r="U94" s="17"/>
       <c r="V94" s="17"/>
-      <c r="W94" s="17"/>
-    </row>
-    <row r="95" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A95" s="42">
-        <v>96</v>
-      </c>
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="17"/>
-      <c r="J95" s="19"/>
-      <c r="K95" s="28"/>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
-      <c r="R95" s="17"/>
-      <c r="S95" s="17"/>
-      <c r="T95" s="17"/>
-      <c r="U95" s="17"/>
-      <c r="V95" s="17"/>
-      <c r="W95" s="17"/>
-    </row>
-    <row r="96" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A96" s="42">
-        <v>97</v>
-      </c>
-      <c r="B96" s="17"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="17"/>
-      <c r="J96" s="19"/>
-      <c r="K96" s="28"/>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
-      <c r="R96" s="17"/>
-      <c r="S96" s="17"/>
-      <c r="T96" s="17"/>
-      <c r="U96" s="17"/>
-      <c r="V96" s="17"/>
-      <c r="W96" s="17"/>
-    </row>
-    <row r="97" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A97" s="42">
-        <v>98</v>
-      </c>
-      <c r="K97" s="28"/>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
-      <c r="R97" s="17"/>
-      <c r="S97" s="17"/>
-      <c r="T97" s="17"/>
-      <c r="U97" s="17"/>
-      <c r="V97" s="17"/>
-      <c r="W97" s="17"/>
-    </row>
-    <row r="98" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A98" s="42">
-        <v>99</v>
-      </c>
-      <c r="K98" s="28"/>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
-      <c r="R98" s="17"/>
-      <c r="S98" s="17"/>
-      <c r="T98" s="17"/>
-      <c r="U98" s="17"/>
-      <c r="V98" s="17"/>
-      <c r="W98" s="17"/>
-    </row>
-    <row r="99" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A99" s="42">
-        <v>100</v>
-      </c>
-      <c r="K99" s="28"/>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
-      <c r="R99" s="17"/>
-      <c r="S99" s="17"/>
-      <c r="T99" s="17"/>
-      <c r="U99" s="17"/>
-      <c r="V99" s="17"/>
-      <c r="W99" s="17"/>
-    </row>
-    <row r="100" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A100" s="42"/>
-      <c r="K100" s="28"/>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
-      <c r="R100" s="17"/>
-      <c r="S100" s="17"/>
-      <c r="T100" s="17"/>
-      <c r="U100" s="17"/>
-      <c r="V100" s="17"/>
-      <c r="W100" s="17"/>
-    </row>
-    <row r="101" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A101" s="42"/>
-      <c r="K101" s="28"/>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
-      <c r="R101" s="17"/>
-      <c r="S101" s="17"/>
-      <c r="T101" s="17"/>
-      <c r="U101" s="17"/>
-      <c r="V101" s="17"/>
-      <c r="W101" s="17"/>
-    </row>
-    <row r="102" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A102" s="42"/>
-      <c r="K102" s="28"/>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
-      <c r="R102" s="17"/>
-      <c r="S102" s="17"/>
-      <c r="T102" s="17"/>
-      <c r="U102" s="17"/>
-      <c r="V102" s="17"/>
-      <c r="W102" s="17"/>
-    </row>
-    <row r="103" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A103" s="42"/>
+    </row>
+    <row r="95" spans="1:22" ht="20.100000000000001" customHeight="1">
+      <c r="A95" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6210,8 +5944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S248"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="J182" sqref="J182:R182"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="J190" sqref="J190:R190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -13774,7 +13508,7 @@
         <v>86</v>
       </c>
       <c r="R137" s="7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="138" spans="1:19">
@@ -13828,7 +13562,7 @@
         <v>86</v>
       </c>
       <c r="R138" s="26" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="139" spans="1:19">
@@ -13851,7 +13585,7 @@
         <v>43185</v>
       </c>
       <c r="G139" s="26" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H139" s="26" t="s">
         <v>613</v>
@@ -13882,7 +13616,7 @@
         <v>86</v>
       </c>
       <c r="R139" s="26" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="140" spans="1:19">
@@ -13936,7 +13670,7 @@
         <v>86</v>
       </c>
       <c r="R140" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="141" spans="1:19">
@@ -13990,7 +13724,7 @@
         <v>86</v>
       </c>
       <c r="R141" s="7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="142" spans="1:19">
@@ -14044,7 +13778,7 @@
         <v>86</v>
       </c>
       <c r="R142" s="7" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="143" spans="1:19">
@@ -14098,7 +13832,7 @@
         <v>86</v>
       </c>
       <c r="R143" s="26" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="144" spans="1:19">
@@ -14121,7 +13855,7 @@
         <v>43152</v>
       </c>
       <c r="G144" s="26" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H144" s="26" t="s">
         <v>622</v>
@@ -14152,7 +13886,7 @@
         <v>86</v>
       </c>
       <c r="R144" s="26" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -14175,10 +13909,10 @@
         <v>43212</v>
       </c>
       <c r="G145" s="26" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H145" s="26" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I145" s="33">
         <v>43187</v>
@@ -14206,7 +13940,7 @@
         <v>86</v>
       </c>
       <c r="R145" s="26" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -14214,7 +13948,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="26" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C146" s="26" t="s">
         <v>22</v>
@@ -14229,10 +13963,10 @@
         <v>43198</v>
       </c>
       <c r="G146" s="26" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H146" s="26" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I146" s="33">
         <v>43200</v>
@@ -14260,7 +13994,7 @@
         <v>86</v>
       </c>
       <c r="R146" s="26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -14268,7 +14002,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="26" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C147" s="26" t="s">
         <v>11</v>
@@ -14283,10 +14017,10 @@
         <v>43142</v>
       </c>
       <c r="G147" s="26" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H147" s="26" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I147" s="33">
         <v>43144</v>
@@ -14314,7 +14048,7 @@
         <v>86</v>
       </c>
       <c r="R147" s="26" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -14322,7 +14056,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="26" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C148" s="26" t="s">
         <v>11</v>
@@ -14337,10 +14071,10 @@
         <v>43140</v>
       </c>
       <c r="G148" s="26" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H148" s="26" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I148" s="33">
         <v>43144</v>
@@ -14368,7 +14102,7 @@
         <v>86</v>
       </c>
       <c r="R148" s="26" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -14422,7 +14156,7 @@
         <v>86</v>
       </c>
       <c r="R149" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -14470,13 +14204,13 @@
         <v>9164</v>
       </c>
       <c r="P150" s="7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="Q150" s="7" t="s">
         <v>86</v>
       </c>
       <c r="R150" s="7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -14484,7 +14218,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="26" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C151" s="26" t="s">
         <v>11</v>
@@ -14499,10 +14233,10 @@
         <v>43235</v>
       </c>
       <c r="G151" s="26" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H151" s="26" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I151" s="33">
         <v>43206</v>
@@ -14530,7 +14264,7 @@
         <v>86</v>
       </c>
       <c r="R151" s="26" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -14538,7 +14272,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="26" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C152" s="26" t="s">
         <v>22</v>
@@ -14553,10 +14287,10 @@
         <v>43208</v>
       </c>
       <c r="G152" s="26" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H152" s="26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I152" s="33">
         <v>43209</v>
@@ -14584,7 +14318,7 @@
         <v>86</v>
       </c>
       <c r="R152" s="26" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -14592,7 +14326,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="26" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C153" s="26" t="s">
         <v>11</v>
@@ -14607,10 +14341,10 @@
         <v>43235</v>
       </c>
       <c r="G153" s="26" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H153" s="26" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I153" s="33">
         <v>43214</v>
@@ -14638,7 +14372,7 @@
         <v>86</v>
       </c>
       <c r="R153" s="26" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -14692,7 +14426,7 @@
         <v>86</v>
       </c>
       <c r="R154" s="26" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -14700,7 +14434,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="26" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C155" s="26" t="s">
         <v>11</v>
@@ -14715,10 +14449,10 @@
         <v>43242</v>
       </c>
       <c r="G155" s="26" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H155" s="26" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I155" s="33">
         <v>43214</v>
@@ -14746,7 +14480,7 @@
         <v>86</v>
       </c>
       <c r="R155" s="26" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -14754,7 +14488,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="26" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C156" s="26" t="s">
         <v>11</v>
@@ -14769,10 +14503,10 @@
         <v>43235</v>
       </c>
       <c r="G156" s="26" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H156" s="26" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I156" s="33">
         <v>43219</v>
@@ -14800,7 +14534,7 @@
         <v>86</v>
       </c>
       <c r="R156" s="26" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -14808,7 +14542,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="26" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C157" s="26" t="s">
         <v>11</v>
@@ -14823,10 +14557,10 @@
         <v>43139</v>
       </c>
       <c r="G157" s="26" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H157" s="26" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I157" s="33">
         <v>43144</v>
@@ -14854,7 +14588,7 @@
         <v>86</v>
       </c>
       <c r="R157" s="26" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -14908,7 +14642,7 @@
         <v>86</v>
       </c>
       <c r="R158" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -14916,7 +14650,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="26" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C159" s="26" t="s">
         <v>19</v>
@@ -14931,10 +14665,10 @@
         <v>43223</v>
       </c>
       <c r="G159" s="26" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H159" s="26" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I159" s="33">
         <v>43228</v>
@@ -14962,7 +14696,7 @@
         <v>86</v>
       </c>
       <c r="R159" s="26" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -14970,7 +14704,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="26" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C160" s="26" t="s">
         <v>11</v>
@@ -14985,10 +14719,10 @@
         <v>43143</v>
       </c>
       <c r="G160" s="26" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H160" s="26" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I160" s="33">
         <v>43144</v>
@@ -15016,7 +14750,7 @@
         <v>86</v>
       </c>
       <c r="R160" s="26" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -15070,7 +14804,7 @@
         <v>86</v>
       </c>
       <c r="R161" s="26" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -15124,7 +14858,7 @@
         <v>86</v>
       </c>
       <c r="R162" s="26" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -15132,7 +14866,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="26" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C163" s="26" t="s">
         <v>20</v>
@@ -15147,10 +14881,10 @@
         <v>43278</v>
       </c>
       <c r="G163" s="26" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H163" s="26" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I163" s="33">
         <v>43256</v>
@@ -15186,7 +14920,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="26" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C164" s="26" t="s">
         <v>20</v>
@@ -15201,10 +14935,10 @@
         <v>43301</v>
       </c>
       <c r="G164" s="26" t="s">
+        <v>717</v>
+      </c>
+      <c r="H164" s="26" t="s">
         <v>718</v>
-      </c>
-      <c r="H164" s="26" t="s">
-        <v>719</v>
       </c>
       <c r="I164" s="33">
         <v>43257</v>
@@ -15232,7 +14966,7 @@
         <v>86</v>
       </c>
       <c r="R164" s="26" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -15240,7 +14974,7 @@
         <v>154</v>
       </c>
       <c r="B165" s="26" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C165" s="26" t="s">
         <v>20</v>
@@ -15255,10 +14989,10 @@
         <v>43314</v>
       </c>
       <c r="G165" s="26" t="s">
+        <v>714</v>
+      </c>
+      <c r="H165" s="26" t="s">
         <v>715</v>
-      </c>
-      <c r="H165" s="26" t="s">
-        <v>716</v>
       </c>
       <c r="I165" s="33">
         <v>43257</v>
@@ -15286,7 +15020,7 @@
         <v>86</v>
       </c>
       <c r="R165" s="26" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -15294,7 +15028,7 @@
         <v>155</v>
       </c>
       <c r="B166" s="26" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C166" s="26" t="s">
         <v>20</v>
@@ -15309,10 +15043,10 @@
         <v>43271</v>
       </c>
       <c r="G166" s="26" t="s">
+        <v>722</v>
+      </c>
+      <c r="H166" s="26" t="s">
         <v>723</v>
-      </c>
-      <c r="H166" s="26" t="s">
-        <v>724</v>
       </c>
       <c r="I166" s="33">
         <v>43256</v>
@@ -15340,7 +15074,7 @@
         <v>86</v>
       </c>
       <c r="R166" s="26" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -15348,7 +15082,7 @@
         <v>156</v>
       </c>
       <c r="B167" s="26" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C167" s="26" t="s">
         <v>20</v>
@@ -15363,10 +15097,10 @@
         <v>43343</v>
       </c>
       <c r="G167" s="26" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H167" s="26" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I167" s="33">
         <v>43303</v>
@@ -15394,7 +15128,7 @@
         <v>86</v>
       </c>
       <c r="R167" s="26" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -15402,7 +15136,7 @@
         <v>157</v>
       </c>
       <c r="B168" s="26" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C168" s="26" t="s">
         <v>20</v>
@@ -15417,10 +15151,10 @@
         <v>43344</v>
       </c>
       <c r="G168" s="26" t="s">
+        <v>735</v>
+      </c>
+      <c r="H168" s="26" t="s">
         <v>736</v>
-      </c>
-      <c r="H168" s="26" t="s">
-        <v>737</v>
       </c>
       <c r="I168" s="33">
         <v>43303</v>
@@ -15448,7 +15182,7 @@
         <v>86</v>
       </c>
       <c r="R168" s="26" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -15456,7 +15190,7 @@
         <v>158</v>
       </c>
       <c r="B169" s="26" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C169" s="26" t="s">
         <v>20</v>
@@ -15471,10 +15205,10 @@
         <v>43344</v>
       </c>
       <c r="G169" s="26" t="s">
+        <v>741</v>
+      </c>
+      <c r="H169" s="26" t="s">
         <v>742</v>
-      </c>
-      <c r="H169" s="26" t="s">
-        <v>743</v>
       </c>
       <c r="I169" s="33">
         <v>43325</v>
@@ -15502,7 +15236,7 @@
         <v>86</v>
       </c>
       <c r="R169" s="26" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -15510,7 +15244,7 @@
         <v>159</v>
       </c>
       <c r="B170" s="26" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C170" s="26" t="s">
         <v>20</v>
@@ -15525,10 +15259,10 @@
         <v>43344</v>
       </c>
       <c r="G170" s="26" t="s">
+        <v>747</v>
+      </c>
+      <c r="H170" s="26" t="s">
         <v>748</v>
-      </c>
-      <c r="H170" s="26" t="s">
-        <v>749</v>
       </c>
       <c r="I170" s="33">
         <v>43325</v>
@@ -15553,10 +15287,10 @@
         <v>43349</v>
       </c>
       <c r="Q170" s="26" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="R170" s="26" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -15610,7 +15344,7 @@
         <v>86</v>
       </c>
       <c r="R171" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -15664,7 +15398,7 @@
         <v>86</v>
       </c>
       <c r="R172" s="26" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -15672,7 +15406,7 @@
         <v>162</v>
       </c>
       <c r="B173" s="26" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C173" s="26" t="s">
         <v>20</v>
@@ -15687,10 +15421,10 @@
         <v>43185</v>
       </c>
       <c r="G173" s="26" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H173" s="26" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I173" s="33">
         <v>43228</v>
@@ -15718,7 +15452,7 @@
         <v>86</v>
       </c>
       <c r="R173" s="26" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -15772,7 +15506,7 @@
         <v>86</v>
       </c>
       <c r="R174" s="7" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -15780,7 +15514,7 @@
         <v>164</v>
       </c>
       <c r="B175" s="26" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C175" s="26" t="s">
         <v>20</v>
@@ -15795,10 +15529,10 @@
         <v>43185</v>
       </c>
       <c r="G175" s="26" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H175" s="26" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I175" s="33">
         <v>43151</v>
@@ -15826,7 +15560,7 @@
         <v>86</v>
       </c>
       <c r="R175" s="26" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -15880,7 +15614,7 @@
         <v>86</v>
       </c>
       <c r="R176" s="26" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -15888,7 +15622,7 @@
         <v>166</v>
       </c>
       <c r="B177" s="26" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C177" s="26" t="s">
         <v>20</v>
@@ -15903,10 +15637,10 @@
         <v>43344</v>
       </c>
       <c r="G177" s="26" t="s">
+        <v>738</v>
+      </c>
+      <c r="H177" s="26" t="s">
         <v>739</v>
-      </c>
-      <c r="H177" s="26" t="s">
-        <v>740</v>
       </c>
       <c r="I177" s="33">
         <v>43325</v>
@@ -15934,7 +15668,7 @@
         <v>86</v>
       </c>
       <c r="R177" s="26" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -15942,7 +15676,7 @@
         <v>167</v>
       </c>
       <c r="B178" s="26" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C178" s="26" t="s">
         <v>20</v>
@@ -15957,10 +15691,10 @@
         <v>43354</v>
       </c>
       <c r="G178" s="26" t="s">
+        <v>744</v>
+      </c>
+      <c r="H178" s="26" t="s">
         <v>745</v>
-      </c>
-      <c r="H178" s="26" t="s">
-        <v>746</v>
       </c>
       <c r="I178" s="33">
         <v>43325</v>
@@ -15988,7 +15722,7 @@
         <v>86</v>
       </c>
       <c r="R178" s="26" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -16042,7 +15776,7 @@
         <v>86</v>
       </c>
       <c r="R179" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -16096,7 +15830,7 @@
         <v>86</v>
       </c>
       <c r="R180" s="7" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -16150,7 +15884,7 @@
         <v>86</v>
       </c>
       <c r="R181" s="7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -16158,7 +15892,7 @@
         <v>171</v>
       </c>
       <c r="B182" s="26" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C182" s="26" t="s">
         <v>20</v>
@@ -16173,10 +15907,10 @@
         <v>43337</v>
       </c>
       <c r="G182" s="26" t="s">
+        <v>757</v>
+      </c>
+      <c r="H182" s="26" t="s">
         <v>758</v>
-      </c>
-      <c r="H182" s="26" t="s">
-        <v>759</v>
       </c>
       <c r="I182" s="33">
         <v>43311</v>
@@ -16201,187 +15935,419 @@
         <v>43382</v>
       </c>
       <c r="Q182" s="26" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="R182" s="26" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="183" spans="1:18">
       <c r="A183" s="13">
         <v>172</v>
       </c>
-      <c r="B183" s="17"/>
-      <c r="C183" s="17"/>
-      <c r="D183" s="17"/>
-      <c r="E183" s="17"/>
-      <c r="F183" s="17"/>
-      <c r="G183" s="17"/>
-      <c r="H183" s="17"/>
-      <c r="I183" s="17"/>
-      <c r="J183" s="19"/>
-      <c r="K183" s="28"/>
-      <c r="L183" s="19"/>
-      <c r="M183" s="19"/>
-      <c r="N183" s="19"/>
-      <c r="O183" s="30"/>
-      <c r="P183" s="30"/>
-      <c r="Q183" s="19"/>
-      <c r="R183" s="19"/>
+      <c r="B183" s="26" t="s">
+        <v>636</v>
+      </c>
+      <c r="C183" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D183" s="26">
+        <v>54</v>
+      </c>
+      <c r="E183" s="29">
+        <v>43177</v>
+      </c>
+      <c r="F183" s="29">
+        <v>43212</v>
+      </c>
+      <c r="G183" s="26" t="s">
+        <v>665</v>
+      </c>
+      <c r="H183" s="26" t="s">
+        <v>671</v>
+      </c>
+      <c r="I183" s="33">
+        <v>43191</v>
+      </c>
+      <c r="J183" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K183" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L183" s="26">
+        <v>29160</v>
+      </c>
+      <c r="M183" s="26">
+        <v>35</v>
+      </c>
+      <c r="N183" s="26"/>
+      <c r="O183" s="29">
+        <v>43188</v>
+      </c>
+      <c r="P183" s="26"/>
+      <c r="Q183" s="26" t="s">
+        <v>791</v>
+      </c>
+      <c r="R183" s="26" t="s">
+        <v>793</v>
+      </c>
     </row>
     <row r="184" spans="1:18">
       <c r="A184" s="13">
         <v>173</v>
       </c>
-      <c r="B184" s="17"/>
-      <c r="C184" s="17"/>
-      <c r="D184" s="17"/>
-      <c r="E184" s="17"/>
-      <c r="F184" s="17"/>
-      <c r="G184" s="17"/>
-      <c r="H184" s="17"/>
-      <c r="I184" s="17"/>
-      <c r="J184" s="19"/>
-      <c r="K184" s="28"/>
-      <c r="L184" s="5"/>
-      <c r="M184" s="5"/>
-      <c r="N184" s="5"/>
-      <c r="O184" s="40"/>
-      <c r="P184" s="40"/>
-      <c r="Q184" s="5"/>
-      <c r="R184" s="5"/>
+      <c r="B184" s="26" t="s">
+        <v>647</v>
+      </c>
+      <c r="C184" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D184" s="26">
+        <v>9</v>
+      </c>
+      <c r="E184" s="29">
+        <v>43134</v>
+      </c>
+      <c r="F184" s="29">
+        <v>43169</v>
+      </c>
+      <c r="G184" s="26" t="s">
+        <v>648</v>
+      </c>
+      <c r="H184" s="26" t="s">
+        <v>662</v>
+      </c>
+      <c r="I184" s="33">
+        <v>43144</v>
+      </c>
+      <c r="J184" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K184" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L184" s="26">
+        <v>5400</v>
+      </c>
+      <c r="M184" s="26">
+        <v>35</v>
+      </c>
+      <c r="N184" s="26"/>
+      <c r="O184" s="29">
+        <v>43200</v>
+      </c>
+      <c r="P184" s="29">
+        <v>43387</v>
+      </c>
+      <c r="Q184" s="26" t="s">
+        <v>791</v>
+      </c>
+      <c r="R184" s="26" t="s">
+        <v>792</v>
+      </c>
     </row>
     <row r="185" spans="1:18">
       <c r="A185" s="13">
         <v>174</v>
       </c>
-      <c r="B185" s="17"/>
-      <c r="C185" s="17"/>
-      <c r="D185" s="17"/>
-      <c r="E185" s="17"/>
-      <c r="F185" s="17"/>
-      <c r="G185" s="17"/>
-      <c r="H185" s="17"/>
-      <c r="I185" s="17"/>
-      <c r="J185" s="19"/>
-      <c r="K185" s="28"/>
-      <c r="L185" s="5"/>
-      <c r="M185" s="5"/>
-      <c r="N185" s="5"/>
-      <c r="O185" s="40"/>
-      <c r="P185" s="40"/>
-      <c r="Q185" s="5"/>
-      <c r="R185" s="5"/>
+      <c r="B185" s="26" t="s">
+        <v>753</v>
+      </c>
+      <c r="C185" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D185" s="26">
+        <v>40</v>
+      </c>
+      <c r="E185" s="29">
+        <v>43302</v>
+      </c>
+      <c r="F185" s="29">
+        <v>43337</v>
+      </c>
+      <c r="G185" s="26" t="s">
+        <v>755</v>
+      </c>
+      <c r="H185" s="26" t="s">
+        <v>756</v>
+      </c>
+      <c r="I185" s="33">
+        <v>43311</v>
+      </c>
+      <c r="J185" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K185" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L185" s="26">
+        <v>21600</v>
+      </c>
+      <c r="M185" s="26">
+        <v>35</v>
+      </c>
+      <c r="N185" s="26"/>
+      <c r="O185" s="29">
+        <v>43342</v>
+      </c>
+      <c r="P185" s="29">
+        <v>43384</v>
+      </c>
+      <c r="Q185" s="26" t="s">
+        <v>791</v>
+      </c>
+      <c r="R185" s="26" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="186" spans="1:18">
       <c r="A186" s="13">
         <v>175</v>
       </c>
-      <c r="B186" s="17"/>
-      <c r="C186" s="17"/>
-      <c r="D186" s="17"/>
-      <c r="E186" s="17"/>
-      <c r="F186" s="17"/>
-      <c r="G186" s="17"/>
-      <c r="H186" s="17"/>
-      <c r="I186" s="17"/>
-      <c r="J186" s="19"/>
-      <c r="K186" s="28"/>
-      <c r="L186" s="19"/>
-      <c r="M186" s="19"/>
-      <c r="N186" s="19"/>
-      <c r="O186" s="30"/>
-      <c r="P186" s="30"/>
-      <c r="Q186" s="19"/>
-      <c r="R186" s="19"/>
+      <c r="B186" s="26">
+        <v>7953</v>
+      </c>
+      <c r="C186" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="D186" s="26">
+        <v>25</v>
+      </c>
+      <c r="E186" s="26"/>
+      <c r="F186" s="26"/>
+      <c r="G186" s="26" t="s">
+        <v>775</v>
+      </c>
+      <c r="H186" s="26" t="s">
+        <v>783</v>
+      </c>
+      <c r="I186" s="33">
+        <v>43313</v>
+      </c>
+      <c r="J186" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K186" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L186" s="26">
+        <v>13500</v>
+      </c>
+      <c r="M186" s="26">
+        <v>21</v>
+      </c>
+      <c r="N186" s="26"/>
+      <c r="O186" s="29">
+        <v>43374</v>
+      </c>
+      <c r="P186" s="29">
+        <v>43393</v>
+      </c>
+      <c r="Q186" s="26" t="s">
+        <v>761</v>
+      </c>
+      <c r="R186" s="26" t="s">
+        <v>794</v>
+      </c>
     </row>
     <row r="187" spans="1:18">
       <c r="A187" s="13">
         <v>176</v>
       </c>
-      <c r="B187" s="17"/>
-      <c r="C187" s="17"/>
-      <c r="D187" s="17"/>
-      <c r="E187" s="17"/>
-      <c r="F187" s="17"/>
-      <c r="G187" s="17"/>
-      <c r="H187" s="17"/>
-      <c r="I187" s="17"/>
-      <c r="J187" s="19"/>
-      <c r="K187" s="28"/>
-      <c r="L187" s="5"/>
-      <c r="M187" s="5"/>
-      <c r="N187" s="5"/>
-      <c r="O187" s="40"/>
-      <c r="P187" s="40"/>
-      <c r="Q187" s="5"/>
-      <c r="R187" s="5"/>
+      <c r="B187" s="26">
+        <v>9671</v>
+      </c>
+      <c r="C187" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="D187" s="26">
+        <v>19</v>
+      </c>
+      <c r="E187" s="26"/>
+      <c r="F187" s="26"/>
+      <c r="G187" s="26" t="s">
+        <v>776</v>
+      </c>
+      <c r="H187" s="26" t="s">
+        <v>784</v>
+      </c>
+      <c r="I187" s="33">
+        <v>43314</v>
+      </c>
+      <c r="J187" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K187" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L187" s="26">
+        <v>10260</v>
+      </c>
+      <c r="M187" s="26">
+        <v>21</v>
+      </c>
+      <c r="N187" s="26"/>
+      <c r="O187" s="29">
+        <v>43375</v>
+      </c>
+      <c r="P187" s="29">
+        <v>43394</v>
+      </c>
+      <c r="Q187" s="26" t="s">
+        <v>761</v>
+      </c>
+      <c r="R187" s="26">
+        <v>19</v>
+      </c>
     </row>
     <row r="188" spans="1:18">
       <c r="A188" s="13">
         <v>177</v>
       </c>
-      <c r="B188" s="17"/>
-      <c r="C188" s="17"/>
-      <c r="D188" s="17"/>
-      <c r="E188" s="17"/>
-      <c r="F188" s="17"/>
-      <c r="G188" s="17"/>
-      <c r="H188" s="17"/>
-      <c r="I188" s="17"/>
-      <c r="J188" s="19"/>
-      <c r="K188" s="28"/>
-      <c r="L188" s="5"/>
-      <c r="M188" s="5"/>
-      <c r="N188" s="5"/>
-      <c r="O188" s="40"/>
-      <c r="P188" s="40"/>
-      <c r="Q188" s="5"/>
-      <c r="R188" s="5"/>
+      <c r="B188" s="26">
+        <v>8808</v>
+      </c>
+      <c r="C188" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="D188" s="26">
+        <v>25</v>
+      </c>
+      <c r="E188" s="26"/>
+      <c r="F188" s="26"/>
+      <c r="G188" s="26" t="s">
+        <v>777</v>
+      </c>
+      <c r="H188" s="26" t="s">
+        <v>785</v>
+      </c>
+      <c r="I188" s="33">
+        <v>43315</v>
+      </c>
+      <c r="J188" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K188" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L188" s="26">
+        <v>13500</v>
+      </c>
+      <c r="M188" s="26">
+        <v>21</v>
+      </c>
+      <c r="N188" s="26"/>
+      <c r="O188" s="29">
+        <v>43376</v>
+      </c>
+      <c r="P188" s="29">
+        <v>43396</v>
+      </c>
+      <c r="Q188" s="26" t="s">
+        <v>761</v>
+      </c>
+      <c r="R188" s="26" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="189" spans="1:18">
       <c r="A189" s="13">
         <v>178</v>
       </c>
-      <c r="B189" s="17"/>
-      <c r="C189" s="17"/>
-      <c r="D189" s="17"/>
-      <c r="E189" s="17"/>
-      <c r="F189" s="17"/>
-      <c r="G189" s="17"/>
-      <c r="H189" s="17"/>
-      <c r="I189" s="17"/>
-      <c r="J189" s="19"/>
-      <c r="K189" s="28"/>
-      <c r="L189" s="19"/>
-      <c r="M189" s="19"/>
-      <c r="N189" s="19"/>
-      <c r="O189" s="30"/>
-      <c r="P189" s="30"/>
-      <c r="Q189" s="19"/>
-      <c r="R189" s="19"/>
+      <c r="B189" s="26">
+        <v>3006</v>
+      </c>
+      <c r="C189" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="D189" s="26">
+        <v>1</v>
+      </c>
+      <c r="E189" s="26"/>
+      <c r="F189" s="26"/>
+      <c r="G189" s="26" t="s">
+        <v>778</v>
+      </c>
+      <c r="H189" s="26" t="s">
+        <v>786</v>
+      </c>
+      <c r="I189" s="33">
+        <v>43316</v>
+      </c>
+      <c r="J189" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K189" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L189" s="26">
+        <v>540</v>
+      </c>
+      <c r="M189" s="26">
+        <v>21</v>
+      </c>
+      <c r="N189" s="26"/>
+      <c r="O189" s="29">
+        <v>43377</v>
+      </c>
+      <c r="P189" s="29">
+        <v>43395</v>
+      </c>
+      <c r="Q189" s="26" t="s">
+        <v>761</v>
+      </c>
+      <c r="R189" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="190" spans="1:18">
       <c r="A190" s="13">
         <v>179</v>
       </c>
-      <c r="B190" s="17"/>
-      <c r="C190" s="17"/>
-      <c r="D190" s="17"/>
-      <c r="E190" s="17"/>
-      <c r="F190" s="17"/>
-      <c r="G190" s="17"/>
-      <c r="H190" s="17"/>
-      <c r="I190" s="17"/>
-      <c r="J190" s="19"/>
-      <c r="K190" s="28"/>
-      <c r="L190" s="19"/>
-      <c r="M190" s="19"/>
-      <c r="N190" s="19"/>
-      <c r="O190" s="30"/>
-      <c r="P190" s="30"/>
-      <c r="Q190" s="19"/>
-      <c r="R190" s="19"/>
+      <c r="B190" s="26">
+        <v>9584</v>
+      </c>
+      <c r="C190" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="D190" s="26">
+        <v>5</v>
+      </c>
+      <c r="E190" s="26"/>
+      <c r="F190" s="26"/>
+      <c r="G190" s="26" t="s">
+        <v>774</v>
+      </c>
+      <c r="H190" s="26" t="s">
+        <v>782</v>
+      </c>
+      <c r="I190" s="33">
+        <v>43312</v>
+      </c>
+      <c r="J190" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K190" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L190" s="26">
+        <v>2700</v>
+      </c>
+      <c r="M190" s="26">
+        <v>21</v>
+      </c>
+      <c r="N190" s="26"/>
+      <c r="O190" s="29">
+        <v>43373</v>
+      </c>
+      <c r="P190" s="26"/>
+      <c r="Q190" s="26" t="s">
+        <v>761</v>
+      </c>
+      <c r="R190" s="26" t="s">
+        <v>796</v>
+      </c>
     </row>
     <row r="191" spans="1:18">
       <c r="A191" s="13">
@@ -17706,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="L1" s="76" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17.25">
@@ -17735,7 +17701,7 @@
         <v>43076</v>
       </c>
       <c r="I2" s="61" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J2" s="61">
         <v>26000</v>
@@ -17773,7 +17739,7 @@
         <v>43144</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J3" s="5">
         <v>40500</v>
@@ -17838,7 +17804,7 @@
         <v>2</v>
       </c>
       <c r="L8" s="76" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="17.25">
@@ -17896,10 +17862,10 @@
         <v>43212</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H10" s="22">
         <v>43191</v>
@@ -17919,7 +17885,7 @@
     </row>
     <row r="11" spans="1:12" ht="18" thickBot="1">
       <c r="A11" s="44" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B11" s="44" t="s">
         <v>20</v>
@@ -17934,10 +17900,10 @@
         <v>43185</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G11" s="44" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H11" s="46">
         <v>43228</v>
@@ -18008,7 +17974,7 @@
         <v>2</v>
       </c>
       <c r="L18" s="76" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="17.25">
@@ -18037,7 +18003,7 @@
         <v>43144</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J19" s="5">
         <v>40500</v>
@@ -18107,10 +18073,10 @@
         <v>43212</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H21" s="22">
         <v>43191</v>
@@ -18154,7 +18120,7 @@
         <v>43137</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J22" s="2">
         <v>13500</v>
@@ -18168,7 +18134,7 @@
     </row>
     <row r="23" spans="1:13" ht="18" thickBot="1">
       <c r="A23" s="44" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B23" s="44" t="s">
         <v>20</v>
@@ -18183,10 +18149,10 @@
         <v>43185</v>
       </c>
       <c r="F23" s="44" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G23" s="44" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H23" s="46">
         <v>43228</v>
@@ -18247,7 +18213,7 @@
         <v>43137</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J29" s="5">
         <v>40500</v>
@@ -18285,7 +18251,7 @@
         <v>43137</v>
       </c>
       <c r="I30" s="68" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J30" s="44">
         <v>40500</v>
@@ -18340,7 +18306,7 @@
     </row>
     <row r="32" spans="1:13" ht="17.25">
       <c r="A32" s="17" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B32" s="17" t="s">
         <v>20</v>
@@ -18355,10 +18321,10 @@
         <v>43169</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H32" s="22">
         <v>43144</v>
@@ -18378,7 +18344,7 @@
     </row>
     <row r="33" spans="1:12" ht="18" thickBot="1">
       <c r="A33" s="17" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>20</v>
@@ -18393,10 +18359,10 @@
         <v>43185</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H33" s="22">
         <v>43151</v>
@@ -18486,7 +18452,7 @@
         <v>2</v>
       </c>
       <c r="K1" s="76" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25">
@@ -18512,7 +18478,7 @@
         <v>43076</v>
       </c>
       <c r="H2" s="61" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I2" s="61">
         <v>26000</v>
@@ -18547,7 +18513,7 @@
         <v>43144</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I3" s="5">
         <v>40500</v>
@@ -18608,7 +18574,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="76" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="17.25">
@@ -18660,10 +18626,10 @@
         <v>43212</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G10" s="22">
         <v>43191</v>
@@ -18695,10 +18661,10 @@
         <v>43185</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G11" s="46">
         <v>43228</v>
@@ -18765,7 +18731,7 @@
         <v>2</v>
       </c>
       <c r="K18" s="76" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="17.25">
@@ -18791,7 +18757,7 @@
         <v>43144</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I19" s="5">
         <v>40500</v>
@@ -18852,10 +18818,10 @@
         <v>43212</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G21" s="22">
         <v>43191</v>
@@ -18896,7 +18862,7 @@
         <v>43137</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I22" s="2">
         <v>13500</v>
@@ -18922,10 +18888,10 @@
         <v>43185</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F23" s="44" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G23" s="46">
         <v>43228</v>
@@ -18982,7 +18948,7 @@
         <v>43137</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I29" s="5">
         <v>40500</v>
@@ -19017,7 +18983,7 @@
         <v>43137</v>
       </c>
       <c r="H30" s="68" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I30" s="44">
         <v>40500</v>
@@ -19078,10 +19044,10 @@
         <v>43169</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G32" s="22">
         <v>43144</v>
@@ -19113,10 +19079,10 @@
         <v>43185</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G33" s="22">
         <v>43151</v>
